--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_15-14/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_15-14/curvature_data.xlsx
@@ -379,254 +379,254 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>54936.32309</v>
+        <v>54899.187088</v>
       </c>
       <c r="B2">
-        <v>6.6667241764e-05</v>
+        <v>4.4429639937e-05</v>
       </c>
       <c r="C2">
-        <v>-0.00020243304078</v>
+        <v>3.2491856902e-06</v>
       </c>
       <c r="D2">
-        <v>-0.00029809916899</v>
+        <v>-2.9205259369e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>54960.123091</v>
+        <v>54912.255088</v>
       </c>
       <c r="B3">
-        <v>6.0385161245e-05</v>
+        <v>7.7946299415e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00034103727272</v>
+        <v>-5.4849427748e-05</v>
       </c>
       <c r="D3">
-        <v>-0.00047045486781</v>
+        <v>-0.00012350207266</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>54899.187088</v>
+        <v>54924.387089</v>
       </c>
       <c r="B4">
-        <v>4.4429639937e-05</v>
+        <v>7.464046104500001e-05</v>
       </c>
       <c r="C4">
-        <v>3.2491856902e-06</v>
+        <v>-0.00012630716382</v>
       </c>
       <c r="D4">
-        <v>-2.9205259369e-05</v>
+        <v>-0.0002105202505</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>55053.055095</v>
+        <v>54936.32309</v>
       </c>
       <c r="B5">
-        <v>6.713916021100001e-05</v>
+        <v>6.6667241764e-05</v>
       </c>
       <c r="C5">
-        <v>-0.00012318092471</v>
+        <v>-0.00020243304078</v>
       </c>
       <c r="D5">
-        <v>-0.00020659676195</v>
+        <v>-0.00029809916899</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>55063.455096</v>
+        <v>54948.25509</v>
       </c>
       <c r="B6">
-        <v>6.2771585138e-05</v>
+        <v>5.4107891742e-05</v>
       </c>
       <c r="C6">
-        <v>-5.5563193875e-05</v>
+        <v>-0.00027438289209</v>
       </c>
       <c r="D6">
-        <v>-0.00011729095023</v>
+        <v>-0.00038274859774</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>55072.451096</v>
+        <v>54960.123091</v>
       </c>
       <c r="B7">
-        <v>5.6843680785e-05</v>
+        <v>6.0385161245e-05</v>
       </c>
       <c r="C7">
-        <v>7.5021832456e-06</v>
+        <v>-0.00034103727272</v>
       </c>
       <c r="D7">
-        <v>-3.4070851987e-05</v>
+        <v>-0.00047045486781</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>54982.187092</v>
+        <v>54971.655091</v>
       </c>
       <c r="B8">
-        <v>7.965544019399999e-05</v>
+        <v>8.9352163241e-05</v>
       </c>
       <c r="C8">
-        <v>-0.00046187534867</v>
+        <v>-0.00040025667327</v>
       </c>
       <c r="D8">
-        <v>-0.00065241382404</v>
+        <v>-0.00055992882319</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>54924.387089</v>
+        <v>54982.187092</v>
       </c>
       <c r="B9">
-        <v>7.464046104500001e-05</v>
+        <v>7.965544019399999e-05</v>
       </c>
       <c r="C9">
-        <v>-0.00012630716382</v>
+        <v>-0.00046187534867</v>
       </c>
       <c r="D9">
-        <v>-0.0002105202505</v>
+        <v>-0.00065241382404</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>55023.387094</v>
+        <v>54991.787092</v>
       </c>
       <c r="B10">
-        <v>4.6579446413e-05</v>
+        <v>2.9448545906e-05</v>
       </c>
       <c r="C10">
-        <v>-0.0003459207877</v>
+        <v>-0.00054077458605</v>
       </c>
       <c r="D10">
-        <v>-0.00046201382454</v>
+        <v>-0.00073267973699</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>55087.119097</v>
+        <v>55002.119093</v>
       </c>
       <c r="B11">
-        <v>6.3714487202e-05</v>
+        <v>5.5456406322e-05</v>
       </c>
       <c r="C11">
-        <v>9.8092793702e-06</v>
+        <v>-0.00046458656937</v>
       </c>
       <c r="D11">
-        <v>-3.296524252e-05</v>
+        <v>-0.00065288090466</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>54912.255088</v>
+        <v>55012.855093</v>
       </c>
       <c r="B12">
-        <v>7.7946299415e-05</v>
+        <v>8.370565684599999e-05</v>
       </c>
       <c r="C12">
-        <v>-5.4849427748e-05</v>
+        <v>-0.00039484717382</v>
       </c>
       <c r="D12">
-        <v>-0.00012350207266</v>
+        <v>-0.0005601766966</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>55002.119093</v>
+        <v>55023.387094</v>
       </c>
       <c r="B13">
-        <v>5.5456406322e-05</v>
+        <v>4.6579446413e-05</v>
       </c>
       <c r="C13">
-        <v>-0.00046458656937</v>
+        <v>-0.0003459207877</v>
       </c>
       <c r="D13">
-        <v>-0.00065288090466</v>
+        <v>-0.00046201382454</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>54991.787092</v>
+        <v>55033.255094</v>
       </c>
       <c r="B14">
-        <v>2.9448545906e-05</v>
+        <v>3.9991485257e-05</v>
       </c>
       <c r="C14">
-        <v>-0.00054077458605</v>
+        <v>-0.00027760379238</v>
       </c>
       <c r="D14">
-        <v>-0.00073267973699</v>
+        <v>-0.00037530879327</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>54948.25509</v>
+        <v>55043.455095</v>
       </c>
       <c r="B15">
-        <v>5.4107891742e-05</v>
+        <v>6.178483464399999e-05</v>
       </c>
       <c r="C15">
-        <v>-0.00027438289209</v>
+        <v>-0.00019953927399</v>
       </c>
       <c r="D15">
-        <v>-0.00038274859774</v>
+        <v>-0.00029396986465</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>55043.455095</v>
+        <v>55053.055095</v>
       </c>
       <c r="B16">
-        <v>6.178483464399999e-05</v>
+        <v>6.713916021100001e-05</v>
       </c>
       <c r="C16">
-        <v>-0.00019953927399</v>
+        <v>-0.00012318092471</v>
       </c>
       <c r="D16">
-        <v>-0.00029396986465</v>
+        <v>-0.00020659676195</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>55012.855093</v>
+        <v>55063.455096</v>
       </c>
       <c r="B17">
-        <v>8.370565684599999e-05</v>
+        <v>6.2771585138e-05</v>
       </c>
       <c r="C17">
-        <v>-0.00039484717382</v>
+        <v>-5.5563193875e-05</v>
       </c>
       <c r="D17">
-        <v>-0.0005601766966</v>
+        <v>-0.00011729095023</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>54971.655091</v>
+        <v>55072.451096</v>
       </c>
       <c r="B18">
-        <v>8.9352163241e-05</v>
+        <v>5.6843680785e-05</v>
       </c>
       <c r="C18">
-        <v>-0.00040025667327</v>
+        <v>7.5021832456e-06</v>
       </c>
       <c r="D18">
-        <v>-0.00055992882319</v>
+        <v>-3.4070851987e-05</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>55033.255094</v>
+        <v>55087.119097</v>
       </c>
       <c r="B19">
-        <v>3.9991485257e-05</v>
+        <v>6.3714487202e-05</v>
       </c>
       <c r="C19">
-        <v>-0.00027760379238</v>
+        <v>9.8092793702e-06</v>
       </c>
       <c r="D19">
-        <v>-0.00037530879327</v>
+        <v>-3.296524252e-05</v>
       </c>
     </row>
   </sheetData>
